--- a/20200228-Cours2-StuctureDeDonneesEnJS/Ex2.2-Donnees/Population_communes_origine_2018.xlsx
+++ b/20200228-Cours2-StuctureDeDonneesEnJS/Ex2.2-Donnees/Population_communes_origine_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreabrandani/Documents/Ecoles/HEIG/Cours/2019-2020/VisualDon/20200228-Cours2-StuctureDeDonneesEnJS/Ex2.2-Donnees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04F61C-7F0D-7843-8192-6988961321EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D974004-9F04-1248-8866-96BC7225ABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="30360" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,16 @@
     <sheet name="2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018'!$A$1:$E$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018'!$A$1:$C$310</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2018'!$A$1:$E$310</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2018'!$A$1:$C$310</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Total</t>
   </si>
@@ -946,12 +946,6 @@
   </si>
   <si>
     <t>Veytaux</t>
-  </si>
-  <si>
-    <t>Population suisse</t>
-  </si>
-  <si>
-    <t>Population étrangère</t>
   </si>
   <si>
     <t>Lussery-Villars</t>
@@ -1891,40 +1885,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>5401</v>
       </c>
@@ -1932,16 +1918,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>6063</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4071</v>
-      </c>
-      <c r="E2" s="7">
         <v>10134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>5402</v>
       </c>
@@ -1949,16 +1929,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>5277</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2480</v>
-      </c>
-      <c r="E3" s="7">
         <v>7757</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>5403</v>
       </c>
@@ -1966,16 +1940,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>354</v>
-      </c>
-      <c r="D4" s="7">
-        <v>72</v>
-      </c>
-      <c r="E4" s="7">
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>5404</v>
       </c>
@@ -1983,16 +1951,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>398</v>
-      </c>
-      <c r="D5" s="7">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7">
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5405</v>
       </c>
@@ -2000,16 +1962,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="7">
-        <v>954</v>
-      </c>
-      <c r="D6" s="7">
-        <v>378</v>
-      </c>
-      <c r="E6" s="7">
         <v>1332</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5406</v>
       </c>
@@ -2017,16 +1973,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="7">
-        <v>767</v>
-      </c>
-      <c r="D7" s="7">
-        <v>179</v>
-      </c>
-      <c r="E7" s="7">
         <v>946</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5407</v>
       </c>
@@ -2034,16 +1984,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="7">
-        <v>1771</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2168</v>
-      </c>
-      <c r="E8" s="7">
         <v>3939</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5408</v>
       </c>
@@ -2051,16 +1995,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="7">
-        <v>831</v>
-      </c>
-      <c r="D9" s="7">
-        <v>282</v>
-      </c>
-      <c r="E9" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>5409</v>
       </c>
@@ -2068,16 +2006,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="7">
-        <v>4933</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2528</v>
-      </c>
-      <c r="E10" s="7">
         <v>7461</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5410</v>
       </c>
@@ -2085,16 +2017,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>950</v>
-      </c>
-      <c r="D11" s="7">
-        <v>171</v>
-      </c>
-      <c r="E11" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>5411</v>
       </c>
@@ -2102,16 +2028,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="7">
-        <v>1103</v>
-      </c>
-      <c r="D12" s="7">
-        <v>343</v>
-      </c>
-      <c r="E12" s="7">
         <v>1446</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>5412</v>
       </c>
@@ -2119,16 +2039,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>597</v>
-      </c>
-      <c r="D13" s="7">
-        <v>229</v>
-      </c>
-      <c r="E13" s="7">
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5413</v>
       </c>
@@ -2136,16 +2050,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="7">
-        <v>1177</v>
-      </c>
-      <c r="D14" s="7">
-        <v>598</v>
-      </c>
-      <c r="E14" s="7">
         <v>1775</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5414</v>
       </c>
@@ -2153,16 +2061,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="7">
-        <v>3429</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2342</v>
-      </c>
-      <c r="E15" s="7">
         <v>5771</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5415</v>
       </c>
@@ -2170,16 +2072,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>875</v>
-      </c>
-      <c r="D16" s="7">
-        <v>191</v>
-      </c>
-      <c r="E16" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5421</v>
       </c>
@@ -2187,16 +2083,10 @@
         <v>182</v>
       </c>
       <c r="C17" s="7">
-        <v>1204</v>
-      </c>
-      <c r="D17" s="7">
-        <v>265</v>
-      </c>
-      <c r="E17" s="7">
         <v>1469</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5422</v>
       </c>
@@ -2204,16 +2094,10 @@
         <v>183</v>
       </c>
       <c r="C18" s="7">
-        <v>2219</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="E18" s="7">
         <v>3242</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5423</v>
       </c>
@@ -2221,16 +2105,10 @@
         <v>184</v>
       </c>
       <c r="C19" s="7">
-        <v>424</v>
-      </c>
-      <c r="D19" s="7">
-        <v>112</v>
-      </c>
-      <c r="E19" s="7">
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5424</v>
       </c>
@@ -2238,16 +2116,10 @@
         <v>185</v>
       </c>
       <c r="C20" s="7">
-        <v>263</v>
-      </c>
-      <c r="D20" s="7">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5425</v>
       </c>
@@ -2255,16 +2127,10 @@
         <v>186</v>
       </c>
       <c r="C21" s="7">
-        <v>1116</v>
-      </c>
-      <c r="D21" s="7">
-        <v>479</v>
-      </c>
-      <c r="E21" s="7">
         <v>1595</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5426</v>
       </c>
@@ -2272,16 +2138,10 @@
         <v>187</v>
       </c>
       <c r="C22" s="7">
-        <v>322</v>
-      </c>
-      <c r="D22" s="7">
-        <v>168</v>
-      </c>
-      <c r="E22" s="7">
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>5427</v>
       </c>
@@ -2289,16 +2149,10 @@
         <v>206</v>
       </c>
       <c r="C23" s="7">
-        <v>632</v>
-      </c>
-      <c r="D23" s="7">
-        <v>228</v>
-      </c>
-      <c r="E23" s="7">
         <v>860</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>5428</v>
       </c>
@@ -2306,16 +2160,10 @@
         <v>208</v>
       </c>
       <c r="C24" s="7">
-        <v>1667</v>
-      </c>
-      <c r="D24" s="7">
-        <v>519</v>
-      </c>
-      <c r="E24" s="7">
         <v>2186</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>5429</v>
       </c>
@@ -2323,16 +2171,10 @@
         <v>269</v>
       </c>
       <c r="C25" s="7">
-        <v>397</v>
-      </c>
-      <c r="D25" s="7">
-        <v>81</v>
-      </c>
-      <c r="E25" s="7">
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>5430</v>
       </c>
@@ -2340,16 +2182,10 @@
         <v>271</v>
       </c>
       <c r="C26" s="7">
-        <v>407</v>
-      </c>
-      <c r="D26" s="7">
-        <v>56</v>
-      </c>
-      <c r="E26" s="7">
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>5431</v>
       </c>
@@ -2357,16 +2193,10 @@
         <v>218</v>
       </c>
       <c r="C27" s="7">
-        <v>245</v>
-      </c>
-      <c r="D27" s="7">
-        <v>38</v>
-      </c>
-      <c r="E27" s="7">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>5432</v>
       </c>
@@ -2374,16 +2204,10 @@
         <v>219</v>
       </c>
       <c r="C28" s="7">
-        <v>373</v>
-      </c>
-      <c r="D28" s="7">
-        <v>163</v>
-      </c>
-      <c r="E28" s="7">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>5434</v>
       </c>
@@ -2391,16 +2215,10 @@
         <v>279</v>
       </c>
       <c r="C29" s="7">
-        <v>814</v>
-      </c>
-      <c r="D29" s="7">
-        <v>217</v>
-      </c>
-      <c r="E29" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>5435</v>
       </c>
@@ -2408,16 +2226,10 @@
         <v>228</v>
       </c>
       <c r="C30" s="7">
-        <v>575</v>
-      </c>
-      <c r="D30" s="7">
-        <v>115</v>
-      </c>
-      <c r="E30" s="7">
         <v>690</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>5436</v>
       </c>
@@ -2425,16 +2237,10 @@
         <v>229</v>
       </c>
       <c r="C31" s="7">
-        <v>360</v>
-      </c>
-      <c r="D31" s="7">
-        <v>88</v>
-      </c>
-      <c r="E31" s="7">
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>5437</v>
       </c>
@@ -2442,16 +2248,10 @@
         <v>232</v>
       </c>
       <c r="C32" s="7">
-        <v>321</v>
-      </c>
-      <c r="D32" s="7">
-        <v>97</v>
-      </c>
-      <c r="E32" s="7">
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>5451</v>
       </c>
@@ -2459,16 +2259,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="7">
-        <v>2739</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1543</v>
-      </c>
-      <c r="E33" s="7">
         <v>4282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>5456</v>
       </c>
@@ -2476,16 +2270,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="7">
-        <v>1430</v>
-      </c>
-      <c r="D34" s="7">
-        <v>203</v>
-      </c>
-      <c r="E34" s="7">
         <v>1633</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>5458</v>
       </c>
@@ -2493,16 +2281,10 @@
         <v>26</v>
       </c>
       <c r="C35" s="7">
-        <v>728</v>
-      </c>
-      <c r="D35" s="7">
-        <v>176</v>
-      </c>
-      <c r="E35" s="7">
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>5464</v>
       </c>
@@ -2510,16 +2292,10 @@
         <v>46</v>
       </c>
       <c r="C36" s="7">
-        <v>2655</v>
-      </c>
-      <c r="D36" s="7">
-        <v>508</v>
-      </c>
-      <c r="E36" s="7">
         <v>3163</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>5471</v>
       </c>
@@ -2527,16 +2303,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="7">
-        <v>498</v>
-      </c>
-      <c r="D37" s="7">
-        <v>94</v>
-      </c>
-      <c r="E37" s="7">
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>5472</v>
       </c>
@@ -2544,16 +2314,10 @@
         <v>53</v>
       </c>
       <c r="C38" s="7">
-        <v>307</v>
-      </c>
-      <c r="D38" s="7">
-        <v>97</v>
-      </c>
-      <c r="E38" s="7">
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>5473</v>
       </c>
@@ -2561,16 +2325,10 @@
         <v>54</v>
       </c>
       <c r="C39" s="7">
-        <v>812</v>
-      </c>
-      <c r="D39" s="7">
-        <v>156</v>
-      </c>
-      <c r="E39" s="7">
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>5474</v>
       </c>
@@ -2578,16 +2336,10 @@
         <v>191</v>
       </c>
       <c r="C40" s="7">
-        <v>366</v>
-      </c>
-      <c r="D40" s="7">
-        <v>44</v>
-      </c>
-      <c r="E40" s="7">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>5475</v>
       </c>
@@ -2595,16 +2347,10 @@
         <v>192</v>
       </c>
       <c r="C41" s="7">
-        <v>118</v>
-      </c>
-      <c r="D41" s="7">
-        <v>24</v>
-      </c>
-      <c r="E41" s="7">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>5476</v>
       </c>
@@ -2612,16 +2358,10 @@
         <v>193</v>
       </c>
       <c r="C42" s="7">
-        <v>291</v>
-      </c>
-      <c r="D42" s="7">
-        <v>23</v>
-      </c>
-      <c r="E42" s="7">
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>5477</v>
       </c>
@@ -2629,16 +2369,10 @@
         <v>196</v>
       </c>
       <c r="C43" s="7">
-        <v>2986</v>
-      </c>
-      <c r="D43" s="7">
-        <v>885</v>
-      </c>
-      <c r="E43" s="7">
         <v>3871</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>5478</v>
       </c>
@@ -2646,16 +2380,10 @@
         <v>197</v>
       </c>
       <c r="C44" s="7">
-        <v>419</v>
-      </c>
-      <c r="D44" s="7">
-        <v>67</v>
-      </c>
-      <c r="E44" s="7">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>5479</v>
       </c>
@@ -2663,16 +2391,10 @@
         <v>198</v>
       </c>
       <c r="C45" s="7">
-        <v>421</v>
-      </c>
-      <c r="D45" s="7">
-        <v>58</v>
-      </c>
-      <c r="E45" s="7">
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>5480</v>
       </c>
@@ -2680,16 +2402,10 @@
         <v>57</v>
       </c>
       <c r="C46" s="7">
-        <v>855</v>
-      </c>
-      <c r="D46" s="7">
-        <v>172</v>
-      </c>
-      <c r="E46" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>5481</v>
       </c>
@@ -2697,16 +2413,10 @@
         <v>201</v>
       </c>
       <c r="C47" s="7">
-        <v>200</v>
-      </c>
-      <c r="D47" s="7">
-        <v>23</v>
-      </c>
-      <c r="E47" s="7">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>5482</v>
       </c>
@@ -2714,16 +2424,10 @@
         <v>204</v>
       </c>
       <c r="C48" s="7">
-        <v>911</v>
-      </c>
-      <c r="D48" s="7">
-        <v>300</v>
-      </c>
-      <c r="E48" s="7">
         <v>1211</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>5483</v>
       </c>
@@ -2731,16 +2435,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="7">
-        <v>277</v>
-      </c>
-      <c r="D49" s="7">
-        <v>33</v>
-      </c>
-      <c r="E49" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>5484</v>
       </c>
@@ -2748,16 +2446,10 @@
         <v>209</v>
       </c>
       <c r="C50" s="7">
-        <v>782</v>
-      </c>
-      <c r="D50" s="7">
-        <v>157</v>
-      </c>
-      <c r="E50" s="7">
         <v>939</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>5485</v>
       </c>
@@ -2765,16 +2457,10 @@
         <v>210</v>
       </c>
       <c r="C51" s="7">
-        <v>342</v>
-      </c>
-      <c r="D51" s="7">
-        <v>56</v>
-      </c>
-      <c r="E51" s="7">
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>5486</v>
       </c>
@@ -2782,33 +2468,21 @@
         <v>211</v>
       </c>
       <c r="C52" s="7">
-        <v>894</v>
-      </c>
-      <c r="D52" s="7">
-        <v>111</v>
-      </c>
-      <c r="E52" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>5487</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C53" s="7">
-        <v>380</v>
-      </c>
-      <c r="D53" s="7">
-        <v>82</v>
-      </c>
-      <c r="E53" s="7">
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>5488</v>
       </c>
@@ -2816,16 +2490,10 @@
         <v>216</v>
       </c>
       <c r="C54" s="7">
-        <v>55</v>
-      </c>
-      <c r="D54" s="7">
-        <v>4</v>
-      </c>
-      <c r="E54" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>5489</v>
       </c>
@@ -2833,16 +2501,10 @@
         <v>65</v>
       </c>
       <c r="C55" s="7">
-        <v>542</v>
-      </c>
-      <c r="D55" s="7">
-        <v>183</v>
-      </c>
-      <c r="E55" s="7">
         <v>725</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>5490</v>
       </c>
@@ -2850,16 +2512,10 @@
         <v>217</v>
       </c>
       <c r="C56" s="7">
-        <v>282</v>
-      </c>
-      <c r="D56" s="7">
-        <v>28</v>
-      </c>
-      <c r="E56" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>5491</v>
       </c>
@@ -2867,16 +2523,10 @@
         <v>220</v>
       </c>
       <c r="C57" s="7">
-        <v>399</v>
-      </c>
-      <c r="D57" s="7">
-        <v>67</v>
-      </c>
-      <c r="E57" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>5492</v>
       </c>
@@ -2884,16 +2534,10 @@
         <v>221</v>
       </c>
       <c r="C58" s="7">
-        <v>792</v>
-      </c>
-      <c r="D58" s="7">
-        <v>148</v>
-      </c>
-      <c r="E58" s="7">
         <v>940</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>5493</v>
       </c>
@@ -2901,16 +2545,10 @@
         <v>222</v>
       </c>
       <c r="C59" s="7">
-        <v>318</v>
-      </c>
-      <c r="D59" s="7">
-        <v>50</v>
-      </c>
-      <c r="E59" s="7">
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>5494</v>
       </c>
@@ -2918,16 +2556,10 @@
         <v>223</v>
       </c>
       <c r="C60" s="7">
-        <v>964</v>
-      </c>
-      <c r="D60" s="7">
-        <v>149</v>
-      </c>
-      <c r="E60" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>5495</v>
       </c>
@@ -2935,16 +2567,10 @@
         <v>73</v>
       </c>
       <c r="C61" s="7">
-        <v>2353</v>
-      </c>
-      <c r="D61" s="7">
-        <v>930</v>
-      </c>
-      <c r="E61" s="7">
         <v>3283</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>5496</v>
       </c>
@@ -2952,16 +2578,10 @@
         <v>74</v>
       </c>
       <c r="C62" s="7">
-        <v>1327</v>
-      </c>
-      <c r="D62" s="7">
-        <v>420</v>
-      </c>
-      <c r="E62" s="7">
         <v>1747</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>5497</v>
       </c>
@@ -2969,16 +2589,10 @@
         <v>224</v>
       </c>
       <c r="C63" s="7">
-        <v>634</v>
-      </c>
-      <c r="D63" s="7">
-        <v>213</v>
-      </c>
-      <c r="E63" s="7">
         <v>847</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>5498</v>
       </c>
@@ -2986,16 +2600,10 @@
         <v>231</v>
       </c>
       <c r="C64" s="7">
-        <v>1876</v>
-      </c>
-      <c r="D64" s="7">
-        <v>720</v>
-      </c>
-      <c r="E64" s="7">
         <v>2596</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>5499</v>
       </c>
@@ -3003,16 +2611,10 @@
         <v>233</v>
       </c>
       <c r="C65" s="7">
-        <v>416</v>
-      </c>
-      <c r="D65" s="7">
-        <v>72</v>
-      </c>
-      <c r="E65" s="7">
         <v>488</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>5500</v>
       </c>
@@ -3020,16 +2622,10 @@
         <v>234</v>
       </c>
       <c r="C66" s="7">
-        <v>199</v>
-      </c>
-      <c r="D66" s="7">
-        <v>26</v>
-      </c>
-      <c r="E66" s="7">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>5501</v>
       </c>
@@ -3037,16 +2633,10 @@
         <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>851</v>
-      </c>
-      <c r="D67" s="7">
-        <v>185</v>
-      </c>
-      <c r="E67" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>5503</v>
       </c>
@@ -3054,16 +2644,10 @@
         <v>82</v>
       </c>
       <c r="C68" s="7">
-        <v>1095</v>
-      </c>
-      <c r="D68" s="7">
-        <v>203</v>
-      </c>
-      <c r="E68" s="7">
         <v>1298</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>5511</v>
       </c>
@@ -3071,16 +2655,10 @@
         <v>47</v>
       </c>
       <c r="C69" s="7">
-        <v>932</v>
-      </c>
-      <c r="D69" s="7">
-        <v>145</v>
-      </c>
-      <c r="E69" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>5512</v>
       </c>
@@ -3088,16 +2666,10 @@
         <v>48</v>
       </c>
       <c r="C70" s="7">
-        <v>1024</v>
-      </c>
-      <c r="D70" s="7">
-        <v>215</v>
-      </c>
-      <c r="E70" s="7">
         <v>1239</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>5513</v>
       </c>
@@ -3105,16 +2677,10 @@
         <v>50</v>
       </c>
       <c r="C71" s="7">
-        <v>401</v>
-      </c>
-      <c r="D71" s="7">
-        <v>115</v>
-      </c>
-      <c r="E71" s="7">
         <v>516</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>5514</v>
       </c>
@@ -3122,16 +2688,10 @@
         <v>51</v>
       </c>
       <c r="C72" s="7">
-        <v>1098</v>
-      </c>
-      <c r="D72" s="7">
-        <v>200</v>
-      </c>
-      <c r="E72" s="7">
         <v>1298</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>5515</v>
       </c>
@@ -3139,16 +2699,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="7">
-        <v>702</v>
-      </c>
-      <c r="D73" s="7">
-        <v>141</v>
-      </c>
-      <c r="E73" s="7">
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>5516</v>
       </c>
@@ -3156,16 +2710,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="7">
-        <v>2075</v>
-      </c>
-      <c r="D74" s="7">
-        <v>667</v>
-      </c>
-      <c r="E74" s="7">
         <v>2742</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>5518</v>
       </c>
@@ -3173,16 +2721,10 @@
         <v>58</v>
       </c>
       <c r="C75" s="7">
-        <v>4523</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E75" s="7">
         <v>5742</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>5520</v>
       </c>
@@ -3190,16 +2732,10 @@
         <v>59</v>
       </c>
       <c r="C76" s="7">
-        <v>900</v>
-      </c>
-      <c r="D76" s="7">
-        <v>124</v>
-      </c>
-      <c r="E76" s="7">
         <v>1024</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>5521</v>
       </c>
@@ -3207,16 +2743,10 @@
         <v>60</v>
       </c>
       <c r="C77" s="7">
-        <v>890</v>
-      </c>
-      <c r="D77" s="7">
-        <v>228</v>
-      </c>
-      <c r="E77" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>5522</v>
       </c>
@@ -3224,16 +2754,10 @@
         <v>61</v>
       </c>
       <c r="C78" s="7">
-        <v>648</v>
-      </c>
-      <c r="D78" s="7">
-        <v>86</v>
-      </c>
-      <c r="E78" s="7">
         <v>734</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>5523</v>
       </c>
@@ -3241,16 +2765,10 @@
         <v>62</v>
       </c>
       <c r="C79" s="7">
-        <v>2115</v>
-      </c>
-      <c r="D79" s="7">
-        <v>461</v>
-      </c>
-      <c r="E79" s="7">
         <v>2576</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>5527</v>
       </c>
@@ -3258,16 +2776,10 @@
         <v>68</v>
       </c>
       <c r="C80" s="7">
-        <v>922</v>
-      </c>
-      <c r="D80" s="7">
-        <v>155</v>
-      </c>
-      <c r="E80" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>5529</v>
       </c>
@@ -3275,16 +2787,10 @@
         <v>71</v>
       </c>
       <c r="C81" s="7">
-        <v>531</v>
-      </c>
-      <c r="D81" s="7">
-        <v>80</v>
-      </c>
-      <c r="E81" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>5530</v>
       </c>
@@ -3292,16 +2798,10 @@
         <v>72</v>
       </c>
       <c r="C82" s="7">
-        <v>495</v>
-      </c>
-      <c r="D82" s="7">
-        <v>66</v>
-      </c>
-      <c r="E82" s="7">
         <v>561</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>5531</v>
       </c>
@@ -3309,16 +2809,10 @@
         <v>75</v>
       </c>
       <c r="C83" s="7">
-        <v>395</v>
-      </c>
-      <c r="D83" s="7">
-        <v>26</v>
-      </c>
-      <c r="E83" s="7">
         <v>421</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>5533</v>
       </c>
@@ -3326,16 +2820,10 @@
         <v>76</v>
       </c>
       <c r="C84" s="7">
-        <v>727</v>
-      </c>
-      <c r="D84" s="7">
-        <v>119</v>
-      </c>
-      <c r="E84" s="7">
         <v>846</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>5534</v>
       </c>
@@ -3343,16 +2831,10 @@
         <v>77</v>
       </c>
       <c r="C85" s="7">
-        <v>228</v>
-      </c>
-      <c r="D85" s="7">
-        <v>27</v>
-      </c>
-      <c r="E85" s="7">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>5535</v>
       </c>
@@ -3360,16 +2842,10 @@
         <v>78</v>
       </c>
       <c r="C86" s="7">
-        <v>693</v>
-      </c>
-      <c r="D86" s="7">
-        <v>85</v>
-      </c>
-      <c r="E86" s="7">
         <v>778</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>5537</v>
       </c>
@@ -3377,16 +2853,10 @@
         <v>80</v>
       </c>
       <c r="C87" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D87" s="7">
-        <v>152</v>
-      </c>
-      <c r="E87" s="7">
         <v>1213</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>5539</v>
       </c>
@@ -3394,16 +2864,10 @@
         <v>81</v>
       </c>
       <c r="C88" s="7">
-        <v>870</v>
-      </c>
-      <c r="D88" s="7">
-        <v>131</v>
-      </c>
-      <c r="E88" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>5540</v>
       </c>
@@ -3411,16 +2875,10 @@
         <v>67</v>
       </c>
       <c r="C89" s="7">
-        <v>1522</v>
-      </c>
-      <c r="D89" s="7">
-        <v>259</v>
-      </c>
-      <c r="E89" s="7">
         <v>1781</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>5541</v>
       </c>
@@ -3428,16 +2886,10 @@
         <v>63</v>
       </c>
       <c r="C90" s="7">
-        <v>1003</v>
-      </c>
-      <c r="D90" s="7">
-        <v>116</v>
-      </c>
-      <c r="E90" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>5551</v>
       </c>
@@ -3445,16 +2897,10 @@
         <v>93</v>
       </c>
       <c r="C91" s="7">
-        <v>462</v>
-      </c>
-      <c r="D91" s="7">
-        <v>43</v>
-      </c>
-      <c r="E91" s="7">
         <v>505</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>5552</v>
       </c>
@@ -3462,16 +2908,10 @@
         <v>95</v>
       </c>
       <c r="C92" s="7">
-        <v>608</v>
-      </c>
-      <c r="D92" s="7">
-        <v>47</v>
-      </c>
-      <c r="E92" s="7">
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>5553</v>
       </c>
@@ -3479,16 +2919,10 @@
         <v>97</v>
       </c>
       <c r="C93" s="7">
-        <v>862</v>
-      </c>
-      <c r="D93" s="7">
-        <v>172</v>
-      </c>
-      <c r="E93" s="7">
         <v>1034</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>5554</v>
       </c>
@@ -3496,16 +2930,10 @@
         <v>105</v>
       </c>
       <c r="C94" s="7">
-        <v>845</v>
-      </c>
-      <c r="D94" s="7">
-        <v>150</v>
-      </c>
-      <c r="E94" s="7">
         <v>995</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>5555</v>
       </c>
@@ -3513,16 +2941,10 @@
         <v>106</v>
       </c>
       <c r="C95" s="7">
-        <v>355</v>
-      </c>
-      <c r="D95" s="7">
-        <v>46</v>
-      </c>
-      <c r="E95" s="7">
         <v>401</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>5556</v>
       </c>
@@ -3530,16 +2952,10 @@
         <v>113</v>
       </c>
       <c r="C96" s="7">
-        <v>410</v>
-      </c>
-      <c r="D96" s="7">
-        <v>37</v>
-      </c>
-      <c r="E96" s="7">
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>5557</v>
       </c>
@@ -3547,16 +2963,10 @@
         <v>114</v>
       </c>
       <c r="C97" s="7">
-        <v>180</v>
-      </c>
-      <c r="D97" s="7">
-        <v>38</v>
-      </c>
-      <c r="E97" s="7">
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>5559</v>
       </c>
@@ -3564,16 +2974,10 @@
         <v>115</v>
       </c>
       <c r="C98" s="7">
-        <v>351</v>
-      </c>
-      <c r="D98" s="7">
-        <v>61</v>
-      </c>
-      <c r="E98" s="7">
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>5560</v>
       </c>
@@ -3581,16 +2985,10 @@
         <v>116</v>
       </c>
       <c r="C99" s="7">
-        <v>204</v>
-      </c>
-      <c r="D99" s="7">
-        <v>34</v>
-      </c>
-      <c r="E99" s="7">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>5561</v>
       </c>
@@ -3598,16 +2996,10 @@
         <v>117</v>
       </c>
       <c r="C100" s="7">
-        <v>2740</v>
-      </c>
-      <c r="D100" s="7">
-        <v>620</v>
-      </c>
-      <c r="E100" s="7">
         <v>3360</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>5562</v>
       </c>
@@ -3615,16 +3007,10 @@
         <v>122</v>
       </c>
       <c r="C101" s="7">
-        <v>104</v>
-      </c>
-      <c r="D101" s="7">
-        <v>18</v>
-      </c>
-      <c r="E101" s="7">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>5563</v>
       </c>
@@ -3632,16 +3018,10 @@
         <v>126</v>
       </c>
       <c r="C102" s="7">
-        <v>153</v>
-      </c>
-      <c r="D102" s="7">
-        <v>5</v>
-      </c>
-      <c r="E102" s="7">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>5564</v>
       </c>
@@ -3649,16 +3029,10 @@
         <v>127</v>
       </c>
       <c r="C103" s="7">
-        <v>93</v>
-      </c>
-      <c r="D103" s="7">
-        <v>8</v>
-      </c>
-      <c r="E103" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>5565</v>
       </c>
@@ -3666,16 +3040,10 @@
         <v>128</v>
       </c>
       <c r="C104" s="7">
-        <v>438</v>
-      </c>
-      <c r="D104" s="7">
-        <v>56</v>
-      </c>
-      <c r="E104" s="7">
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>5566</v>
       </c>
@@ -3683,16 +3051,10 @@
         <v>135</v>
       </c>
       <c r="C105" s="7">
-        <v>334</v>
-      </c>
-      <c r="D105" s="7">
-        <v>39</v>
-      </c>
-      <c r="E105" s="7">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>5568</v>
       </c>
@@ -3700,16 +3062,10 @@
         <v>139</v>
       </c>
       <c r="C106" s="7">
-        <v>3935</v>
-      </c>
-      <c r="D106" s="7">
-        <v>910</v>
-      </c>
-      <c r="E106" s="7">
         <v>4845</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>5571</v>
       </c>
@@ -3717,16 +3073,10 @@
         <v>143</v>
       </c>
       <c r="C107" s="7">
-        <v>770</v>
-      </c>
-      <c r="D107" s="7">
-        <v>107</v>
-      </c>
-      <c r="E107" s="7">
         <v>877</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>5581</v>
       </c>
@@ -3734,16 +3084,10 @@
         <v>162</v>
       </c>
       <c r="C108" s="7">
-        <v>2816</v>
-      </c>
-      <c r="D108" s="7">
-        <v>916</v>
-      </c>
-      <c r="E108" s="7">
         <v>3732</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>5582</v>
       </c>
@@ -3751,16 +3095,10 @@
         <v>157</v>
       </c>
       <c r="C109" s="7">
-        <v>3362</v>
-      </c>
-      <c r="D109" s="7">
-        <v>976</v>
-      </c>
-      <c r="E109" s="7">
         <v>4338</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>5583</v>
       </c>
@@ -3768,16 +3106,10 @@
         <v>288</v>
       </c>
       <c r="C110" s="7">
-        <v>4401</v>
-      </c>
-      <c r="D110" s="7">
-        <v>3504</v>
-      </c>
-      <c r="E110" s="7">
         <v>7905</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>5584</v>
       </c>
@@ -3785,16 +3117,10 @@
         <v>158</v>
       </c>
       <c r="C111" s="7">
-        <v>6736</v>
-      </c>
-      <c r="D111" s="7">
-        <v>2888</v>
-      </c>
-      <c r="E111" s="7">
         <v>9624</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>5585</v>
       </c>
@@ -3802,16 +3128,10 @@
         <v>159</v>
       </c>
       <c r="C112" s="7">
-        <v>1144</v>
-      </c>
-      <c r="D112" s="7">
-        <v>327</v>
-      </c>
-      <c r="E112" s="7">
         <v>1471</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>5586</v>
       </c>
@@ -3819,16 +3139,10 @@
         <v>156</v>
       </c>
       <c r="C113" s="7">
-        <v>79612</v>
-      </c>
-      <c r="D113" s="7">
-        <v>60108</v>
-      </c>
-      <c r="E113" s="7">
         <v>139720</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>5587</v>
       </c>
@@ -3836,16 +3150,10 @@
         <v>160</v>
       </c>
       <c r="C114" s="7">
-        <v>6144</v>
-      </c>
-      <c r="D114" s="7">
-        <v>2372</v>
-      </c>
-      <c r="E114" s="7">
         <v>8516</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>5588</v>
       </c>
@@ -3853,16 +3161,10 @@
         <v>172</v>
       </c>
       <c r="C115" s="7">
-        <v>1035</v>
-      </c>
-      <c r="D115" s="7">
-        <v>472</v>
-      </c>
-      <c r="E115" s="7">
         <v>1507</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>5589</v>
       </c>
@@ -3870,16 +3172,10 @@
         <v>290</v>
       </c>
       <c r="C116" s="7">
-        <v>7210</v>
-      </c>
-      <c r="D116" s="7">
-        <v>5182</v>
-      </c>
-      <c r="E116" s="7">
         <v>12392</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>5590</v>
       </c>
@@ -3887,16 +3183,10 @@
         <v>174</v>
       </c>
       <c r="C117" s="7">
-        <v>12416</v>
-      </c>
-      <c r="D117" s="7">
-        <v>5920</v>
-      </c>
-      <c r="E117" s="7">
         <v>18336</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>5591</v>
       </c>
@@ -3904,16 +3194,10 @@
         <v>291</v>
       </c>
       <c r="C118" s="7">
-        <v>10382</v>
-      </c>
-      <c r="D118" s="7">
-        <v>10586</v>
-      </c>
-      <c r="E118" s="7">
         <v>20968</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>5592</v>
       </c>
@@ -3921,16 +3205,10 @@
         <v>161</v>
       </c>
       <c r="C119" s="7">
-        <v>2514</v>
-      </c>
-      <c r="D119" s="7">
-        <v>797</v>
-      </c>
-      <c r="E119" s="7">
         <v>3311</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>5601</v>
       </c>
@@ -3938,16 +3216,10 @@
         <v>164</v>
       </c>
       <c r="C120" s="7">
-        <v>1699</v>
-      </c>
-      <c r="D120" s="7">
-        <v>539</v>
-      </c>
-      <c r="E120" s="7">
         <v>2238</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>5604</v>
       </c>
@@ -3955,16 +3227,10 @@
         <v>166</v>
       </c>
       <c r="C121" s="7">
-        <v>1685</v>
-      </c>
-      <c r="D121" s="7">
-        <v>397</v>
-      </c>
-      <c r="E121" s="7">
         <v>2082</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>5606</v>
       </c>
@@ -3972,16 +3238,10 @@
         <v>168</v>
       </c>
       <c r="C122" s="7">
-        <v>7557</v>
-      </c>
-      <c r="D122" s="7">
-        <v>2728</v>
-      </c>
-      <c r="E122" s="7">
         <v>10285</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>5607</v>
       </c>
@@ -3989,16 +3249,10 @@
         <v>173</v>
       </c>
       <c r="C123" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D123" s="7">
-        <v>882</v>
-      </c>
-      <c r="E123" s="7">
         <v>2880</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>5609</v>
       </c>
@@ -4006,16 +3260,10 @@
         <v>175</v>
       </c>
       <c r="C124" s="7">
-        <v>296</v>
-      </c>
-      <c r="D124" s="7">
-        <v>62</v>
-      </c>
-      <c r="E124" s="7">
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>5610</v>
       </c>
@@ -4023,16 +3271,10 @@
         <v>176</v>
       </c>
       <c r="C125" s="7">
-        <v>307</v>
-      </c>
-      <c r="D125" s="7">
-        <v>84</v>
-      </c>
-      <c r="E125" s="7">
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>5611</v>
       </c>
@@ -4040,16 +3282,10 @@
         <v>177</v>
       </c>
       <c r="C126" s="7">
-        <v>2631</v>
-      </c>
-      <c r="D126" s="7">
-        <v>722</v>
-      </c>
-      <c r="E126" s="7">
         <v>3353</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>5613</v>
       </c>
@@ -4057,16 +3293,10 @@
         <v>163</v>
       </c>
       <c r="C127" s="7">
-        <v>4185</v>
-      </c>
-      <c r="D127" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E127" s="7">
         <v>5367</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>5621</v>
       </c>
@@ -4074,16 +3304,10 @@
         <v>180</v>
       </c>
       <c r="C128" s="7">
-        <v>405</v>
-      </c>
-      <c r="D128" s="7">
-        <v>130</v>
-      </c>
-      <c r="E128" s="7">
         <v>535</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>5622</v>
       </c>
@@ -4091,16 +3315,10 @@
         <v>188</v>
       </c>
       <c r="C129" s="7">
-        <v>475</v>
-      </c>
-      <c r="D129" s="7">
-        <v>73</v>
-      </c>
-      <c r="E129" s="7">
         <v>548</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>5623</v>
       </c>
@@ -4108,33 +3326,21 @@
         <v>189</v>
       </c>
       <c r="C130" s="7">
-        <v>487</v>
-      </c>
-      <c r="D130" s="7">
-        <v>163</v>
-      </c>
-      <c r="E130" s="7">
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>5624</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C131" s="7">
-        <v>5520</v>
-      </c>
-      <c r="D131" s="7">
-        <v>3239</v>
-      </c>
-      <c r="E131" s="7">
         <v>8759</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>5625</v>
       </c>
@@ -4142,16 +3348,10 @@
         <v>190</v>
       </c>
       <c r="C132" s="7">
-        <v>323</v>
-      </c>
-      <c r="D132" s="7">
-        <v>53</v>
-      </c>
-      <c r="E132" s="7">
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>5627</v>
       </c>
@@ -4159,16 +3359,10 @@
         <v>287</v>
       </c>
       <c r="C133" s="7">
-        <v>3879</v>
-      </c>
-      <c r="D133" s="7">
-        <v>3862</v>
-      </c>
-      <c r="E133" s="7">
         <v>7741</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>5628</v>
       </c>
@@ -4176,16 +3370,10 @@
         <v>194</v>
       </c>
       <c r="C134" s="7">
-        <v>273</v>
-      </c>
-      <c r="D134" s="7">
-        <v>85</v>
-      </c>
-      <c r="E134" s="7">
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>5629</v>
       </c>
@@ -4193,16 +3381,10 @@
         <v>195</v>
       </c>
       <c r="C135" s="7">
-        <v>156</v>
-      </c>
-      <c r="D135" s="7">
-        <v>34</v>
-      </c>
-      <c r="E135" s="7">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>5631</v>
       </c>
@@ -4210,16 +3392,10 @@
         <v>199</v>
       </c>
       <c r="C136" s="7">
-        <v>616</v>
-      </c>
-      <c r="D136" s="7">
-        <v>131</v>
-      </c>
-      <c r="E136" s="7">
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>5632</v>
       </c>
@@ -4227,16 +3403,10 @@
         <v>200</v>
       </c>
       <c r="C137" s="7">
-        <v>1134</v>
-      </c>
-      <c r="D137" s="7">
-        <v>476</v>
-      </c>
-      <c r="E137" s="7">
         <v>1610</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>5633</v>
       </c>
@@ -4244,16 +3414,10 @@
         <v>202</v>
       </c>
       <c r="C138" s="7">
-        <v>1942</v>
-      </c>
-      <c r="D138" s="7">
-        <v>847</v>
-      </c>
-      <c r="E138" s="7">
         <v>2789</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>5634</v>
       </c>
@@ -4261,16 +3425,10 @@
         <v>203</v>
       </c>
       <c r="C139" s="7">
-        <v>2463</v>
-      </c>
-      <c r="D139" s="7">
-        <v>587</v>
-      </c>
-      <c r="E139" s="7">
         <v>3050</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>5635</v>
       </c>
@@ -4278,16 +3436,10 @@
         <v>289</v>
       </c>
       <c r="C140" s="7">
-        <v>6858</v>
-      </c>
-      <c r="D140" s="7">
-        <v>6081</v>
-      </c>
-      <c r="E140" s="7">
         <v>12939</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>5636</v>
       </c>
@@ -4295,16 +3447,10 @@
         <v>205</v>
       </c>
       <c r="C141" s="7">
-        <v>1966</v>
-      </c>
-      <c r="D141" s="7">
-        <v>939</v>
-      </c>
-      <c r="E141" s="7">
         <v>2905</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>5637</v>
       </c>
@@ -4312,16 +3458,10 @@
         <v>212</v>
       </c>
       <c r="C142" s="7">
-        <v>738</v>
-      </c>
-      <c r="D142" s="7">
-        <v>261</v>
-      </c>
-      <c r="E142" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>5638</v>
       </c>
@@ -4329,16 +3469,10 @@
         <v>213</v>
       </c>
       <c r="C143" s="7">
-        <v>2020</v>
-      </c>
-      <c r="D143" s="7">
-        <v>573</v>
-      </c>
-      <c r="E143" s="7">
         <v>2593</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>5639</v>
       </c>
@@ -4346,16 +3480,10 @@
         <v>214</v>
       </c>
       <c r="C144" s="7">
-        <v>669</v>
-      </c>
-      <c r="D144" s="7">
-        <v>121</v>
-      </c>
-      <c r="E144" s="7">
         <v>790</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>5640</v>
       </c>
@@ -4363,16 +3491,10 @@
         <v>215</v>
       </c>
       <c r="C145" s="7">
-        <v>562</v>
-      </c>
-      <c r="D145" s="7">
-        <v>125</v>
-      </c>
-      <c r="E145" s="7">
         <v>687</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>5642</v>
       </c>
@@ -4380,16 +3502,10 @@
         <v>179</v>
       </c>
       <c r="C146" s="7">
-        <v>10067</v>
-      </c>
-      <c r="D146" s="7">
-        <v>5658</v>
-      </c>
-      <c r="E146" s="7">
         <v>15725</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>5643</v>
       </c>
@@ -4397,16 +3513,10 @@
         <v>225</v>
       </c>
       <c r="C147" s="7">
-        <v>3687</v>
-      </c>
-      <c r="D147" s="7">
-        <v>1611</v>
-      </c>
-      <c r="E147" s="7">
         <v>5298</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>5644</v>
       </c>
@@ -4414,16 +3524,10 @@
         <v>226</v>
       </c>
       <c r="C148" s="7">
-        <v>333</v>
-      </c>
-      <c r="D148" s="7">
-        <v>66</v>
-      </c>
-      <c r="E148" s="7">
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>5645</v>
       </c>
@@ -4431,16 +3535,10 @@
         <v>227</v>
       </c>
       <c r="C149" s="7">
-        <v>389</v>
-      </c>
-      <c r="D149" s="7">
-        <v>69</v>
-      </c>
-      <c r="E149" s="7">
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>5646</v>
       </c>
@@ -4448,16 +3546,10 @@
         <v>230</v>
       </c>
       <c r="C150" s="7">
-        <v>3597</v>
-      </c>
-      <c r="D150" s="7">
-        <v>2087</v>
-      </c>
-      <c r="E150" s="7">
         <v>5684</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>5648</v>
       </c>
@@ -4465,16 +3557,10 @@
         <v>292</v>
       </c>
       <c r="C151" s="7">
-        <v>2462</v>
-      </c>
-      <c r="D151" s="7">
-        <v>2207</v>
-      </c>
-      <c r="E151" s="7">
         <v>4669</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>5649</v>
       </c>
@@ -4482,16 +3568,10 @@
         <v>235</v>
       </c>
       <c r="C152" s="7">
-        <v>1364</v>
-      </c>
-      <c r="D152" s="7">
-        <v>569</v>
-      </c>
-      <c r="E152" s="7">
         <v>1933</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>5650</v>
       </c>
@@ -4499,16 +3579,10 @@
         <v>236</v>
       </c>
       <c r="C153" s="7">
-        <v>151</v>
-      </c>
-      <c r="D153" s="7">
-        <v>33</v>
-      </c>
-      <c r="E153" s="7">
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>5651</v>
       </c>
@@ -4516,16 +3590,10 @@
         <v>293</v>
       </c>
       <c r="C154" s="7">
-        <v>689</v>
-      </c>
-      <c r="D154" s="7">
-        <v>274</v>
-      </c>
-      <c r="E154" s="7">
         <v>963</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>5652</v>
       </c>
@@ -4533,16 +3601,10 @@
         <v>237</v>
       </c>
       <c r="C155" s="7">
-        <v>509</v>
-      </c>
-      <c r="D155" s="7">
-        <v>99</v>
-      </c>
-      <c r="E155" s="7">
         <v>608</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>5653</v>
       </c>
@@ -4550,16 +3612,10 @@
         <v>238</v>
       </c>
       <c r="C156" s="7">
-        <v>699</v>
-      </c>
-      <c r="D156" s="7">
-        <v>187</v>
-      </c>
-      <c r="E156" s="7">
         <v>886</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>5654</v>
       </c>
@@ -4567,16 +3623,10 @@
         <v>239</v>
       </c>
       <c r="C157" s="7">
-        <v>419</v>
-      </c>
-      <c r="D157" s="7">
-        <v>88</v>
-      </c>
-      <c r="E157" s="7">
         <v>507</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>5655</v>
       </c>
@@ -4584,16 +3634,10 @@
         <v>240</v>
       </c>
       <c r="C158" s="7">
-        <v>1093</v>
-      </c>
-      <c r="D158" s="7">
-        <v>336</v>
-      </c>
-      <c r="E158" s="7">
         <v>1429</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>5661</v>
       </c>
@@ -4601,16 +3645,10 @@
         <v>52</v>
       </c>
       <c r="C159" s="7">
-        <v>351</v>
-      </c>
-      <c r="D159" s="7">
-        <v>33</v>
-      </c>
-      <c r="E159" s="7">
         <v>384</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>5663</v>
       </c>
@@ -4618,16 +3656,10 @@
         <v>17</v>
       </c>
       <c r="C160" s="7">
-        <v>187</v>
-      </c>
-      <c r="D160" s="7">
-        <v>27</v>
-      </c>
-      <c r="E160" s="7">
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>5665</v>
       </c>
@@ -4635,16 +3667,10 @@
         <v>19</v>
       </c>
       <c r="C161" s="7">
-        <v>199</v>
-      </c>
-      <c r="D161" s="7">
-        <v>17</v>
-      </c>
-      <c r="E161" s="7">
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>5669</v>
       </c>
@@ -4652,16 +3678,10 @@
         <v>24</v>
       </c>
       <c r="C162" s="7">
-        <v>273</v>
-      </c>
-      <c r="D162" s="7">
-        <v>40</v>
-      </c>
-      <c r="E162" s="7">
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>5671</v>
       </c>
@@ -4669,16 +3689,10 @@
         <v>25</v>
       </c>
       <c r="C163" s="7">
-        <v>211</v>
-      </c>
-      <c r="D163" s="7">
-        <v>28</v>
-      </c>
-      <c r="E163" s="7">
         <v>239</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>5673</v>
       </c>
@@ -4686,16 +3700,10 @@
         <v>29</v>
       </c>
       <c r="C164" s="7">
-        <v>317</v>
-      </c>
-      <c r="D164" s="7">
-        <v>47</v>
-      </c>
-      <c r="E164" s="7">
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>5674</v>
       </c>
@@ -4703,16 +3711,10 @@
         <v>30</v>
       </c>
       <c r="C165" s="7">
-        <v>138</v>
-      </c>
-      <c r="D165" s="7">
-        <v>8</v>
-      </c>
-      <c r="E165" s="7">
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>5675</v>
       </c>
@@ -4720,16 +3722,10 @@
         <v>31</v>
       </c>
       <c r="C166" s="7">
-        <v>2654</v>
-      </c>
-      <c r="D166" s="7">
-        <v>1545</v>
-      </c>
-      <c r="E166" s="7">
         <v>4199</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>5678</v>
       </c>
@@ -4737,16 +3733,10 @@
         <v>33</v>
       </c>
       <c r="C167" s="7">
-        <v>3311</v>
-      </c>
-      <c r="D167" s="7">
-        <v>2824</v>
-      </c>
-      <c r="E167" s="7">
         <v>6135</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>5680</v>
       </c>
@@ -4754,16 +3744,10 @@
         <v>69</v>
       </c>
       <c r="C168" s="7">
-        <v>263</v>
-      </c>
-      <c r="D168" s="7">
-        <v>36</v>
-      </c>
-      <c r="E168" s="7">
         <v>299</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>5683</v>
       </c>
@@ -4771,16 +3755,10 @@
         <v>35</v>
       </c>
       <c r="C169" s="7">
-        <v>168</v>
-      </c>
-      <c r="D169" s="7">
-        <v>16</v>
-      </c>
-      <c r="E169" s="7">
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>5684</v>
       </c>
@@ -4788,16 +3766,10 @@
         <v>37</v>
       </c>
       <c r="C170" s="7">
-        <v>55</v>
-      </c>
-      <c r="D170" s="7">
-        <v>10</v>
-      </c>
-      <c r="E170" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>5688</v>
       </c>
@@ -4805,16 +3777,10 @@
         <v>38</v>
       </c>
       <c r="C171" s="7">
-        <v>125</v>
-      </c>
-      <c r="D171" s="7">
-        <v>34</v>
-      </c>
-      <c r="E171" s="7">
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>5690</v>
       </c>
@@ -4822,16 +3788,10 @@
         <v>42</v>
       </c>
       <c r="C172" s="7">
-        <v>121</v>
-      </c>
-      <c r="D172" s="7">
-        <v>11</v>
-      </c>
-      <c r="E172" s="7">
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>5692</v>
       </c>
@@ -4839,16 +3799,10 @@
         <v>44</v>
       </c>
       <c r="C173" s="7">
-        <v>469</v>
-      </c>
-      <c r="D173" s="7">
-        <v>108</v>
-      </c>
-      <c r="E173" s="7">
         <v>577</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>5693</v>
       </c>
@@ -4856,16 +3810,10 @@
         <v>66</v>
       </c>
       <c r="C174" s="7">
-        <v>2350</v>
-      </c>
-      <c r="D174" s="7">
-        <v>335</v>
-      </c>
-      <c r="E174" s="7">
         <v>2685</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>5701</v>
       </c>
@@ -4873,33 +3821,21 @@
         <v>242</v>
       </c>
       <c r="C175" s="7">
-        <v>175</v>
-      </c>
-      <c r="D175" s="7">
-        <v>60</v>
-      </c>
-      <c r="E175" s="7">
         <v>235</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>5702</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C176" s="7">
-        <v>1937</v>
-      </c>
-      <c r="D176" s="7">
-        <v>760</v>
-      </c>
-      <c r="E176" s="7">
         <v>2697</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>5703</v>
       </c>
@@ -4907,16 +3843,10 @@
         <v>243</v>
       </c>
       <c r="C177" s="7">
-        <v>1038</v>
-      </c>
-      <c r="D177" s="7">
-        <v>309</v>
-      </c>
-      <c r="E177" s="7">
         <v>1347</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>5704</v>
       </c>
@@ -4924,16 +3854,10 @@
         <v>244</v>
       </c>
       <c r="C178" s="7">
-        <v>1402</v>
-      </c>
-      <c r="D178" s="7">
-        <v>550</v>
-      </c>
-      <c r="E178" s="7">
         <v>1952</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>5705</v>
       </c>
@@ -4941,16 +3865,10 @@
         <v>245</v>
       </c>
       <c r="C179" s="7">
-        <v>582</v>
-      </c>
-      <c r="D179" s="7">
-        <v>285</v>
-      </c>
-      <c r="E179" s="7">
         <v>867</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>5706</v>
       </c>
@@ -4958,16 +3876,10 @@
         <v>246</v>
       </c>
       <c r="C180" s="7">
-        <v>803</v>
-      </c>
-      <c r="D180" s="7">
-        <v>337</v>
-      </c>
-      <c r="E180" s="7">
         <v>1140</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>5707</v>
       </c>
@@ -4975,16 +3887,10 @@
         <v>250</v>
       </c>
       <c r="C181" s="7">
-        <v>824</v>
-      </c>
-      <c r="D181" s="7">
-        <v>457</v>
-      </c>
-      <c r="E181" s="7">
         <v>1281</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>5708</v>
       </c>
@@ -4992,16 +3898,10 @@
         <v>251</v>
       </c>
       <c r="C182" s="7">
-        <v>602</v>
-      </c>
-      <c r="D182" s="7">
-        <v>362</v>
-      </c>
-      <c r="E182" s="7">
         <v>964</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>5709</v>
       </c>
@@ -5009,16 +3909,10 @@
         <v>252</v>
       </c>
       <c r="C183" s="7">
-        <v>947</v>
-      </c>
-      <c r="D183" s="7">
-        <v>280</v>
-      </c>
-      <c r="E183" s="7">
         <v>1227</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>5710</v>
       </c>
@@ -5026,16 +3920,10 @@
         <v>253</v>
       </c>
       <c r="C184" s="7">
-        <v>412</v>
-      </c>
-      <c r="D184" s="7">
-        <v>87</v>
-      </c>
-      <c r="E184" s="7">
         <v>499</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>5711</v>
       </c>
@@ -5043,16 +3931,10 @@
         <v>254</v>
       </c>
       <c r="C185" s="7">
-        <v>1776</v>
-      </c>
-      <c r="D185" s="7">
-        <v>1101</v>
-      </c>
-      <c r="E185" s="7">
         <v>2877</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>5712</v>
       </c>
@@ -5060,16 +3942,10 @@
         <v>255</v>
       </c>
       <c r="C186" s="7">
-        <v>1904</v>
-      </c>
-      <c r="D186" s="7">
-        <v>1222</v>
-      </c>
-      <c r="E186" s="7">
         <v>3126</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>5713</v>
       </c>
@@ -5077,16 +3953,10 @@
         <v>256</v>
       </c>
       <c r="C187" s="7">
-        <v>1490</v>
-      </c>
-      <c r="D187" s="7">
-        <v>703</v>
-      </c>
-      <c r="E187" s="7">
         <v>2193</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>5714</v>
       </c>
@@ -5094,16 +3964,10 @@
         <v>257</v>
       </c>
       <c r="C188" s="7">
-        <v>871</v>
-      </c>
-      <c r="D188" s="7">
-        <v>304</v>
-      </c>
-      <c r="E188" s="7">
         <v>1175</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>5715</v>
       </c>
@@ -5111,16 +3975,10 @@
         <v>258</v>
       </c>
       <c r="C189" s="7">
-        <v>830</v>
-      </c>
-      <c r="D189" s="7">
-        <v>255</v>
-      </c>
-      <c r="E189" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>5716</v>
       </c>
@@ -5128,16 +3986,10 @@
         <v>261</v>
       </c>
       <c r="C190" s="7">
-        <v>1121</v>
-      </c>
-      <c r="D190" s="7">
-        <v>497</v>
-      </c>
-      <c r="E190" s="7">
         <v>1618</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>5717</v>
       </c>
@@ -5145,16 +3997,10 @@
         <v>262</v>
       </c>
       <c r="C191" s="7">
-        <v>2147</v>
-      </c>
-      <c r="D191" s="7">
-        <v>1643</v>
-      </c>
-      <c r="E191" s="7">
         <v>3790</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>5718</v>
       </c>
@@ -5162,16 +4008,10 @@
         <v>263</v>
       </c>
       <c r="C192" s="7">
-        <v>1371</v>
-      </c>
-      <c r="D192" s="7">
-        <v>590</v>
-      </c>
-      <c r="E192" s="7">
         <v>1961</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>5719</v>
       </c>
@@ -5179,16 +4019,10 @@
         <v>265</v>
       </c>
       <c r="C193" s="7">
-        <v>908</v>
-      </c>
-      <c r="D193" s="7">
-        <v>318</v>
-      </c>
-      <c r="E193" s="7">
         <v>1226</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>5720</v>
       </c>
@@ -5196,16 +4030,10 @@
         <v>266</v>
       </c>
       <c r="C194" s="7">
-        <v>731</v>
-      </c>
-      <c r="D194" s="7">
-        <v>302</v>
-      </c>
-      <c r="E194" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>5721</v>
       </c>
@@ -5213,16 +4041,10 @@
         <v>267</v>
       </c>
       <c r="C195" s="7">
-        <v>8521</v>
-      </c>
-      <c r="D195" s="7">
-        <v>4580</v>
-      </c>
-      <c r="E195" s="7">
         <v>13101</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>5722</v>
       </c>
@@ -5230,16 +4052,10 @@
         <v>268</v>
       </c>
       <c r="C196" s="7">
-        <v>311</v>
-      </c>
-      <c r="D196" s="7">
-        <v>80</v>
-      </c>
-      <c r="E196" s="7">
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>5723</v>
       </c>
@@ -5247,16 +4063,10 @@
         <v>272</v>
       </c>
       <c r="C197" s="7">
-        <v>1255</v>
-      </c>
-      <c r="D197" s="7">
-        <v>820</v>
-      </c>
-      <c r="E197" s="7">
         <v>2075</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>5724</v>
       </c>
@@ -5264,16 +4074,10 @@
         <v>241</v>
       </c>
       <c r="C198" s="7">
-        <v>12688</v>
-      </c>
-      <c r="D198" s="7">
-        <v>8551</v>
-      </c>
-      <c r="E198" s="7">
         <v>21239</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>5725</v>
       </c>
@@ -5281,16 +4085,10 @@
         <v>275</v>
       </c>
       <c r="C199" s="7">
-        <v>2860</v>
-      </c>
-      <c r="D199" s="7">
-        <v>1180</v>
-      </c>
-      <c r="E199" s="7">
         <v>4040</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>5726</v>
       </c>
@@ -5298,16 +4096,10 @@
         <v>276</v>
       </c>
       <c r="C200" s="7">
-        <v>857</v>
-      </c>
-      <c r="D200" s="7">
-        <v>304</v>
-      </c>
-      <c r="E200" s="7">
         <v>1161</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>5727</v>
       </c>
@@ -5315,16 +4107,10 @@
         <v>278</v>
       </c>
       <c r="C201" s="7">
-        <v>1784</v>
-      </c>
-      <c r="D201" s="7">
-        <v>799</v>
-      </c>
-      <c r="E201" s="7">
         <v>2583</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>5728</v>
       </c>
@@ -5332,16 +4118,10 @@
         <v>280</v>
       </c>
       <c r="C202" s="7">
-        <v>421</v>
-      </c>
-      <c r="D202" s="7">
-        <v>171</v>
-      </c>
-      <c r="E202" s="7">
         <v>592</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>5729</v>
       </c>
@@ -5349,16 +4129,10 @@
         <v>281</v>
       </c>
       <c r="C203" s="7">
-        <v>996</v>
-      </c>
-      <c r="D203" s="7">
-        <v>597</v>
-      </c>
-      <c r="E203" s="7">
         <v>1593</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>5730</v>
       </c>
@@ -5366,16 +4140,10 @@
         <v>283</v>
       </c>
       <c r="C204" s="7">
-        <v>1054</v>
-      </c>
-      <c r="D204" s="7">
-        <v>354</v>
-      </c>
-      <c r="E204" s="7">
         <v>1408</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>5731</v>
       </c>
@@ -5383,16 +4151,10 @@
         <v>284</v>
       </c>
       <c r="C205" s="7">
-        <v>1071</v>
-      </c>
-      <c r="D205" s="7">
-        <v>248</v>
-      </c>
-      <c r="E205" s="7">
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>5732</v>
       </c>
@@ -5400,16 +4162,10 @@
         <v>285</v>
       </c>
       <c r="C206" s="7">
-        <v>704</v>
-      </c>
-      <c r="D206" s="7">
-        <v>335</v>
-      </c>
-      <c r="E206" s="7">
         <v>1039</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>5741</v>
       </c>
@@ -5417,16 +4173,10 @@
         <v>84</v>
       </c>
       <c r="C207" s="7">
-        <v>231</v>
-      </c>
-      <c r="D207" s="7">
-        <v>17</v>
-      </c>
-      <c r="E207" s="7">
         <v>248</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>5742</v>
       </c>
@@ -5434,16 +4184,10 @@
         <v>85</v>
       </c>
       <c r="C208" s="7">
-        <v>285</v>
-      </c>
-      <c r="D208" s="7">
-        <v>42</v>
-      </c>
-      <c r="E208" s="7">
         <v>327</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>5743</v>
       </c>
@@ -5451,16 +4195,10 @@
         <v>86</v>
       </c>
       <c r="C209" s="7">
-        <v>558</v>
-      </c>
-      <c r="D209" s="7">
-        <v>73</v>
-      </c>
-      <c r="E209" s="7">
         <v>631</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>5744</v>
       </c>
@@ -5468,16 +4206,10 @@
         <v>87</v>
       </c>
       <c r="C210" s="7">
-        <v>888</v>
-      </c>
-      <c r="D210" s="7">
-        <v>187</v>
-      </c>
-      <c r="E210" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>5745</v>
       </c>
@@ -5485,16 +4217,10 @@
         <v>88</v>
       </c>
       <c r="C211" s="7">
-        <v>863</v>
-      </c>
-      <c r="D211" s="7">
-        <v>164</v>
-      </c>
-      <c r="E211" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>5746</v>
       </c>
@@ -5502,16 +4228,10 @@
         <v>89</v>
       </c>
       <c r="C212" s="7">
-        <v>801</v>
-      </c>
-      <c r="D212" s="7">
-        <v>141</v>
-      </c>
-      <c r="E212" s="7">
         <v>942</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>5747</v>
       </c>
@@ -5519,16 +4239,10 @@
         <v>92</v>
       </c>
       <c r="C213" s="7">
-        <v>188</v>
-      </c>
-      <c r="D213" s="7">
-        <v>8</v>
-      </c>
-      <c r="E213" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>5748</v>
       </c>
@@ -5536,16 +4250,10 @@
         <v>94</v>
       </c>
       <c r="C214" s="7">
-        <v>247</v>
-      </c>
-      <c r="D214" s="7">
-        <v>18</v>
-      </c>
-      <c r="E214" s="7">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>5749</v>
       </c>
@@ -5553,16 +4261,10 @@
         <v>100</v>
       </c>
       <c r="C215" s="7">
-        <v>3759</v>
-      </c>
-      <c r="D215" s="7">
-        <v>1237</v>
-      </c>
-      <c r="E215" s="7">
         <v>4996</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>5750</v>
       </c>
@@ -5570,16 +4272,10 @@
         <v>104</v>
       </c>
       <c r="C216" s="7">
-        <v>163</v>
-      </c>
-      <c r="D216" s="7">
-        <v>22</v>
-      </c>
-      <c r="E216" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>5752</v>
       </c>
@@ -5587,16 +4283,10 @@
         <v>108</v>
       </c>
       <c r="C217" s="7">
-        <v>350</v>
-      </c>
-      <c r="D217" s="7">
-        <v>54</v>
-      </c>
-      <c r="E217" s="7">
         <v>404</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>5754</v>
       </c>
@@ -5604,16 +4294,10 @@
         <v>118</v>
       </c>
       <c r="C218" s="7">
-        <v>284</v>
-      </c>
-      <c r="D218" s="7">
-        <v>24</v>
-      </c>
-      <c r="E218" s="7">
         <v>308</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>5755</v>
       </c>
@@ -5621,16 +4305,10 @@
         <v>120</v>
       </c>
       <c r="C219" s="7">
-        <v>352</v>
-      </c>
-      <c r="D219" s="7">
-        <v>70</v>
-      </c>
-      <c r="E219" s="7">
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>5756</v>
       </c>
@@ -5638,16 +4316,10 @@
         <v>125</v>
       </c>
       <c r="C220" s="7">
-        <v>424</v>
-      </c>
-      <c r="D220" s="7">
-        <v>65</v>
-      </c>
-      <c r="E220" s="7">
         <v>489</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>5757</v>
       </c>
@@ -5655,16 +4327,10 @@
         <v>129</v>
       </c>
       <c r="C221" s="7">
-        <v>4710</v>
-      </c>
-      <c r="D221" s="7">
-        <v>2232</v>
-      </c>
-      <c r="E221" s="7">
         <v>6942</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>5758</v>
       </c>
@@ -5672,16 +4338,10 @@
         <v>133</v>
       </c>
       <c r="C222" s="7">
-        <v>150</v>
-      </c>
-      <c r="D222" s="7">
-        <v>15</v>
-      </c>
-      <c r="E222" s="7">
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>5759</v>
       </c>
@@ -5689,16 +4349,10 @@
         <v>134</v>
       </c>
       <c r="C223" s="7">
-        <v>198</v>
-      </c>
-      <c r="D223" s="7">
-        <v>15</v>
-      </c>
-      <c r="E223" s="7">
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>5760</v>
       </c>
@@ -5706,16 +4360,10 @@
         <v>136</v>
       </c>
       <c r="C224" s="7">
-        <v>433</v>
-      </c>
-      <c r="D224" s="7">
-        <v>49</v>
-      </c>
-      <c r="E224" s="7">
         <v>482</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>5761</v>
       </c>
@@ -5723,16 +4371,10 @@
         <v>137</v>
       </c>
       <c r="C225" s="7">
-        <v>463</v>
-      </c>
-      <c r="D225" s="7">
-        <v>77</v>
-      </c>
-      <c r="E225" s="7">
         <v>540</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>5762</v>
       </c>
@@ -5740,16 +4382,10 @@
         <v>140</v>
       </c>
       <c r="C226" s="7">
-        <v>132</v>
-      </c>
-      <c r="D226" s="7">
-        <v>14</v>
-      </c>
-      <c r="E226" s="7">
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>5763</v>
       </c>
@@ -5757,16 +4393,10 @@
         <v>147</v>
       </c>
       <c r="C227" s="7">
-        <v>509</v>
-      </c>
-      <c r="D227" s="7">
-        <v>113</v>
-      </c>
-      <c r="E227" s="7">
         <v>622</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>5764</v>
       </c>
@@ -5774,16 +4404,10 @@
         <v>149</v>
       </c>
       <c r="C228" s="7">
-        <v>2644</v>
-      </c>
-      <c r="D228" s="7">
-        <v>1208</v>
-      </c>
-      <c r="E228" s="7">
         <v>3852</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>5765</v>
       </c>
@@ -5791,16 +4415,10 @@
         <v>150</v>
       </c>
       <c r="C229" s="7">
-        <v>432</v>
-      </c>
-      <c r="D229" s="7">
-        <v>37</v>
-      </c>
-      <c r="E229" s="7">
         <v>469</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>5766</v>
       </c>
@@ -5808,16 +4426,10 @@
         <v>153</v>
       </c>
       <c r="C230" s="7">
-        <v>481</v>
-      </c>
-      <c r="D230" s="7">
-        <v>103</v>
-      </c>
-      <c r="E230" s="7">
         <v>584</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>5785</v>
       </c>
@@ -5825,16 +4437,10 @@
         <v>21</v>
       </c>
       <c r="C231" s="7">
-        <v>366</v>
-      </c>
-      <c r="D231" s="7">
-        <v>79</v>
-      </c>
-      <c r="E231" s="7">
         <v>445</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>5788</v>
       </c>
@@ -5842,16 +4448,10 @@
         <v>165</v>
       </c>
       <c r="C232" s="7">
-        <v>294</v>
-      </c>
-      <c r="D232" s="7">
-        <v>80</v>
-      </c>
-      <c r="E232" s="7">
         <v>374</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>5790</v>
       </c>
@@ -5859,16 +4459,10 @@
         <v>169</v>
       </c>
       <c r="C233" s="7">
-        <v>437</v>
-      </c>
-      <c r="D233" s="7">
-        <v>55</v>
-      </c>
-      <c r="E233" s="7">
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>5792</v>
       </c>
@@ -5876,16 +4470,10 @@
         <v>170</v>
       </c>
       <c r="C234" s="7">
-        <v>488</v>
-      </c>
-      <c r="D234" s="7">
-        <v>155</v>
-      </c>
-      <c r="E234" s="7">
         <v>643</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>5798</v>
       </c>
@@ -5893,16 +4481,10 @@
         <v>36</v>
       </c>
       <c r="C235" s="7">
-        <v>384</v>
-      </c>
-      <c r="D235" s="7">
-        <v>110</v>
-      </c>
-      <c r="E235" s="7">
         <v>494</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>5799</v>
       </c>
@@ -5910,16 +4492,10 @@
         <v>178</v>
       </c>
       <c r="C236" s="7">
-        <v>1636</v>
-      </c>
-      <c r="D236" s="7">
-        <v>306</v>
-      </c>
-      <c r="E236" s="7">
         <v>1942</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>5803</v>
       </c>
@@ -5927,16 +4503,10 @@
         <v>45</v>
       </c>
       <c r="C237" s="7">
-        <v>522</v>
-      </c>
-      <c r="D237" s="7">
-        <v>73</v>
-      </c>
-      <c r="E237" s="7">
         <v>595</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>5804</v>
       </c>
@@ -5944,16 +4514,10 @@
         <v>64</v>
       </c>
       <c r="C238" s="7">
-        <v>1362</v>
-      </c>
-      <c r="D238" s="7">
-        <v>224</v>
-      </c>
-      <c r="E238" s="7">
         <v>1586</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>5805</v>
       </c>
@@ -5961,16 +4525,10 @@
         <v>171</v>
       </c>
       <c r="C239" s="7">
-        <v>4289</v>
-      </c>
-      <c r="D239" s="7">
-        <v>1212</v>
-      </c>
-      <c r="E239" s="7">
         <v>5501</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>5806</v>
       </c>
@@ -5978,16 +4536,10 @@
         <v>167</v>
       </c>
       <c r="C240" s="7">
-        <v>2420</v>
-      </c>
-      <c r="D240" s="7">
-        <v>449</v>
-      </c>
-      <c r="E240" s="7">
         <v>2869</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>5812</v>
       </c>
@@ -5995,16 +4547,10 @@
         <v>18</v>
       </c>
       <c r="C241" s="7">
-        <v>114</v>
-      </c>
-      <c r="D241" s="7">
-        <v>8</v>
-      </c>
-      <c r="E241" s="7">
         <v>122</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>5813</v>
       </c>
@@ -6012,16 +4558,10 @@
         <v>20</v>
       </c>
       <c r="C242" s="7">
-        <v>445</v>
-      </c>
-      <c r="D242" s="7">
-        <v>35</v>
-      </c>
-      <c r="E242" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>5816</v>
       </c>
@@ -6029,16 +4569,10 @@
         <v>22</v>
       </c>
       <c r="C243" s="7">
-        <v>1796</v>
-      </c>
-      <c r="D243" s="7">
-        <v>683</v>
-      </c>
-      <c r="E243" s="7">
         <v>2479</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>5817</v>
       </c>
@@ -6046,16 +4580,10 @@
         <v>27</v>
       </c>
       <c r="C244" s="7">
-        <v>789</v>
-      </c>
-      <c r="D244" s="7">
-        <v>140</v>
-      </c>
-      <c r="E244" s="7">
         <v>929</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>5819</v>
       </c>
@@ -6063,16 +4591,10 @@
         <v>28</v>
       </c>
       <c r="C245" s="7">
-        <v>276</v>
-      </c>
-      <c r="D245" s="7">
-        <v>65</v>
-      </c>
-      <c r="E245" s="7">
         <v>341</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>5821</v>
       </c>
@@ -6080,16 +4602,10 @@
         <v>32</v>
       </c>
       <c r="C246" s="7">
-        <v>319</v>
-      </c>
-      <c r="D246" s="7">
-        <v>49</v>
-      </c>
-      <c r="E246" s="7">
         <v>368</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>5822</v>
       </c>
@@ -6097,16 +4613,10 @@
         <v>34</v>
       </c>
       <c r="C247" s="7">
-        <v>5932</v>
-      </c>
-      <c r="D247" s="7">
-        <v>4039</v>
-      </c>
-      <c r="E247" s="7">
         <v>9971</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>5827</v>
       </c>
@@ -6114,16 +4624,10 @@
         <v>39</v>
       </c>
       <c r="C248" s="7">
-        <v>241</v>
-      </c>
-      <c r="D248" s="7">
-        <v>26</v>
-      </c>
-      <c r="E248" s="7">
         <v>267</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>5828</v>
       </c>
@@ -6131,16 +4635,10 @@
         <v>40</v>
       </c>
       <c r="C249" s="7">
-        <v>108</v>
-      </c>
-      <c r="D249" s="7">
-        <v>11</v>
-      </c>
-      <c r="E249" s="7">
         <v>119</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>5830</v>
       </c>
@@ -6148,16 +4646,10 @@
         <v>43</v>
       </c>
       <c r="C250" s="7">
-        <v>388</v>
-      </c>
-      <c r="D250" s="7">
-        <v>58</v>
-      </c>
-      <c r="E250" s="7">
         <v>446</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>5831</v>
       </c>
@@ -6165,16 +4657,10 @@
         <v>41</v>
       </c>
       <c r="C251" s="7">
-        <v>2447</v>
-      </c>
-      <c r="D251" s="7">
-        <v>727</v>
-      </c>
-      <c r="E251" s="7">
         <v>3174</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>5841</v>
       </c>
@@ -6182,16 +4668,10 @@
         <v>296</v>
       </c>
       <c r="C252" s="7">
-        <v>2555</v>
-      </c>
-      <c r="D252" s="7">
-        <v>905</v>
-      </c>
-      <c r="E252" s="7">
         <v>3460</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>5842</v>
       </c>
@@ -6199,16 +4679,10 @@
         <v>301</v>
       </c>
       <c r="C253" s="7">
-        <v>475</v>
-      </c>
-      <c r="D253" s="7">
-        <v>73</v>
-      </c>
-      <c r="E253" s="7">
         <v>548</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>5843</v>
       </c>
@@ -6216,16 +4690,10 @@
         <v>302</v>
       </c>
       <c r="C254" s="7">
-        <v>565</v>
-      </c>
-      <c r="D254" s="7">
-        <v>317</v>
-      </c>
-      <c r="E254" s="7">
         <v>882</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>5851</v>
       </c>
@@ -6233,16 +4701,10 @@
         <v>181</v>
       </c>
       <c r="C255" s="7">
-        <v>309</v>
-      </c>
-      <c r="D255" s="7">
-        <v>125</v>
-      </c>
-      <c r="E255" s="7">
         <v>434</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>5852</v>
       </c>
@@ -6250,16 +4712,10 @@
         <v>247</v>
       </c>
       <c r="C256" s="7">
-        <v>359</v>
-      </c>
-      <c r="D256" s="7">
-        <v>112</v>
-      </c>
-      <c r="E256" s="7">
         <v>471</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>5853</v>
       </c>
@@ -6267,16 +4723,10 @@
         <v>248</v>
       </c>
       <c r="C257" s="7">
-        <v>610</v>
-      </c>
-      <c r="D257" s="7">
-        <v>142</v>
-      </c>
-      <c r="E257" s="7">
         <v>752</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>5854</v>
       </c>
@@ -6284,16 +4734,10 @@
         <v>249</v>
       </c>
       <c r="C258" s="7">
-        <v>316</v>
-      </c>
-      <c r="D258" s="7">
-        <v>75</v>
-      </c>
-      <c r="E258" s="7">
         <v>391</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>5855</v>
       </c>
@@ -6301,16 +4745,10 @@
         <v>259</v>
       </c>
       <c r="C259" s="7">
-        <v>432</v>
-      </c>
-      <c r="D259" s="7">
-        <v>203</v>
-      </c>
-      <c r="E259" s="7">
         <v>635</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>5856</v>
       </c>
@@ -6318,16 +4756,10 @@
         <v>260</v>
       </c>
       <c r="C260" s="7">
-        <v>553</v>
-      </c>
-      <c r="D260" s="7">
-        <v>173</v>
-      </c>
-      <c r="E260" s="7">
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>5857</v>
       </c>
@@ -6335,16 +4767,10 @@
         <v>264</v>
       </c>
       <c r="C261" s="7">
-        <v>942</v>
-      </c>
-      <c r="D261" s="7">
-        <v>382</v>
-      </c>
-      <c r="E261" s="7">
         <v>1324</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>5858</v>
       </c>
@@ -6352,16 +4778,10 @@
         <v>270</v>
       </c>
       <c r="C262" s="7">
-        <v>418</v>
-      </c>
-      <c r="D262" s="7">
-        <v>195</v>
-      </c>
-      <c r="E262" s="7">
         <v>613</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>5859</v>
       </c>
@@ -6369,16 +4789,10 @@
         <v>273</v>
       </c>
       <c r="C263" s="7">
-        <v>1886</v>
-      </c>
-      <c r="D263" s="7">
-        <v>765</v>
-      </c>
-      <c r="E263" s="7">
         <v>2651</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>5860</v>
       </c>
@@ -6386,16 +4800,10 @@
         <v>274</v>
       </c>
       <c r="C264" s="7">
-        <v>1056</v>
-      </c>
-      <c r="D264" s="7">
-        <v>486</v>
-      </c>
-      <c r="E264" s="7">
         <v>1542</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>5861</v>
       </c>
@@ -6403,16 +4811,10 @@
         <v>277</v>
       </c>
       <c r="C265" s="7">
-        <v>3476</v>
-      </c>
-      <c r="D265" s="7">
-        <v>2770</v>
-      </c>
-      <c r="E265" s="7">
         <v>6246</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>5862</v>
       </c>
@@ -6420,16 +4822,10 @@
         <v>282</v>
       </c>
       <c r="C266" s="7">
-        <v>188</v>
-      </c>
-      <c r="D266" s="7">
-        <v>58</v>
-      </c>
-      <c r="E266" s="7">
         <v>246</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>5863</v>
       </c>
@@ -6437,16 +4833,10 @@
         <v>286</v>
       </c>
       <c r="C267" s="7">
-        <v>290</v>
-      </c>
-      <c r="D267" s="7">
-        <v>68</v>
-      </c>
-      <c r="E267" s="7">
         <v>358</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>5871</v>
       </c>
@@ -6454,16 +4844,10 @@
         <v>83</v>
       </c>
       <c r="C268" s="7">
-        <v>1247</v>
-      </c>
-      <c r="D268" s="7">
-        <v>234</v>
-      </c>
-      <c r="E268" s="7">
         <v>1481</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>5872</v>
       </c>
@@ -6471,16 +4855,10 @@
         <v>102</v>
       </c>
       <c r="C269" s="7">
-        <v>3380</v>
-      </c>
-      <c r="D269" s="7">
-        <v>1225</v>
-      </c>
-      <c r="E269" s="7">
         <v>4605</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>5873</v>
       </c>
@@ -6488,16 +4866,10 @@
         <v>119</v>
       </c>
       <c r="C270" s="7">
-        <v>741</v>
-      </c>
-      <c r="D270" s="7">
-        <v>134</v>
-      </c>
-      <c r="E270" s="7">
         <v>875</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>5881</v>
       </c>
@@ -6505,16 +4877,10 @@
         <v>294</v>
       </c>
       <c r="C271" s="7">
-        <v>4744</v>
-      </c>
-      <c r="D271" s="7">
-        <v>1431</v>
-      </c>
-      <c r="E271" s="7">
         <v>6175</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>5882</v>
       </c>
@@ -6522,16 +4888,10 @@
         <v>295</v>
       </c>
       <c r="C272" s="7">
-        <v>2244</v>
-      </c>
-      <c r="D272" s="7">
-        <v>697</v>
-      </c>
-      <c r="E272" s="7">
         <v>2941</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>5883</v>
       </c>
@@ -6539,16 +4899,10 @@
         <v>297</v>
       </c>
       <c r="C273" s="7">
-        <v>1654</v>
-      </c>
-      <c r="D273" s="7">
-        <v>628</v>
-      </c>
-      <c r="E273" s="7">
         <v>2282</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>5884</v>
       </c>
@@ -6556,16 +4910,10 @@
         <v>298</v>
       </c>
       <c r="C274" s="7">
-        <v>2274</v>
-      </c>
-      <c r="D274" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E274" s="7">
         <v>3386</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>5885</v>
       </c>
@@ -6573,16 +4921,10 @@
         <v>299</v>
       </c>
       <c r="C275" s="7">
-        <v>1179</v>
-      </c>
-      <c r="D275" s="7">
-        <v>357</v>
-      </c>
-      <c r="E275" s="7">
         <v>1536</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>5886</v>
       </c>
@@ -6590,16 +4932,10 @@
         <v>300</v>
       </c>
       <c r="C276" s="7">
-        <v>14341</v>
-      </c>
-      <c r="D276" s="7">
-        <v>11665</v>
-      </c>
-      <c r="E276" s="7">
         <v>26006</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>5888</v>
       </c>
@@ -6607,16 +4943,10 @@
         <v>303</v>
       </c>
       <c r="C277" s="7">
-        <v>3900</v>
-      </c>
-      <c r="D277" s="7">
-        <v>1285</v>
-      </c>
-      <c r="E277" s="7">
         <v>5185</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>5889</v>
       </c>
@@ -6624,16 +4954,10 @@
         <v>304</v>
       </c>
       <c r="C278" s="7">
-        <v>8229</v>
-      </c>
-      <c r="D278" s="7">
-        <v>3642</v>
-      </c>
-      <c r="E278" s="7">
         <v>11871</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>5890</v>
       </c>
@@ -6641,16 +4965,10 @@
         <v>305</v>
       </c>
       <c r="C279" s="7">
-        <v>11485</v>
-      </c>
-      <c r="D279" s="7">
-        <v>8419</v>
-      </c>
-      <c r="E279" s="7">
         <v>19904</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>5891</v>
       </c>
@@ -6658,16 +4976,10 @@
         <v>306</v>
       </c>
       <c r="C280" s="7">
-        <v>591</v>
-      </c>
-      <c r="D280" s="7">
-        <v>293</v>
-      </c>
-      <c r="E280" s="7">
         <v>884</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>5902</v>
       </c>
@@ -6675,16 +4987,10 @@
         <v>90</v>
       </c>
       <c r="C281" s="7">
-        <v>327</v>
-      </c>
-      <c r="D281" s="7">
-        <v>57</v>
-      </c>
-      <c r="E281" s="7">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
         <v>5903</v>
       </c>
@@ -6692,16 +4998,10 @@
         <v>91</v>
       </c>
       <c r="C282" s="7">
-        <v>223</v>
-      </c>
-      <c r="D282" s="7">
-        <v>2</v>
-      </c>
-      <c r="E282" s="7">
         <v>225</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
         <v>5904</v>
       </c>
@@ -6709,16 +5009,10 @@
         <v>96</v>
       </c>
       <c r="C283" s="7">
-        <v>468</v>
-      </c>
-      <c r="D283" s="7">
-        <v>74</v>
-      </c>
-      <c r="E283" s="7">
         <v>542</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
         <v>5905</v>
       </c>
@@ -6726,16 +5020,10 @@
         <v>98</v>
       </c>
       <c r="C284" s="7">
-        <v>582</v>
-      </c>
-      <c r="D284" s="7">
-        <v>103</v>
-      </c>
-      <c r="E284" s="7">
         <v>685</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
         <v>5907</v>
       </c>
@@ -6743,16 +5031,10 @@
         <v>99</v>
       </c>
       <c r="C285" s="7">
-        <v>273</v>
-      </c>
-      <c r="D285" s="7">
-        <v>35</v>
-      </c>
-      <c r="E285" s="7">
         <v>308</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
         <v>5908</v>
       </c>
@@ -6760,16 +5042,10 @@
         <v>101</v>
       </c>
       <c r="C286" s="7">
-        <v>116</v>
-      </c>
-      <c r="D286" s="7">
-        <v>25</v>
-      </c>
-      <c r="E286" s="7">
         <v>141</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
         <v>5909</v>
       </c>
@@ -6777,16 +5053,10 @@
         <v>103</v>
       </c>
       <c r="C287" s="7">
-        <v>625</v>
-      </c>
-      <c r="D287" s="7">
-        <v>96</v>
-      </c>
-      <c r="E287" s="7">
         <v>721</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
         <v>5910</v>
       </c>
@@ -6794,16 +5064,10 @@
         <v>107</v>
       </c>
       <c r="C288" s="7">
-        <v>351</v>
-      </c>
-      <c r="D288" s="7">
-        <v>34</v>
-      </c>
-      <c r="E288" s="7">
         <v>385</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
         <v>5911</v>
       </c>
@@ -6811,16 +5075,10 @@
         <v>109</v>
       </c>
       <c r="C289" s="7">
-        <v>226</v>
-      </c>
-      <c r="D289" s="7">
-        <v>17</v>
-      </c>
-      <c r="E289" s="7">
         <v>243</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
         <v>5912</v>
       </c>
@@ -6828,16 +5086,10 @@
         <v>110</v>
       </c>
       <c r="C290" s="7">
-        <v>137</v>
-      </c>
-      <c r="D290" s="7">
-        <v>4</v>
-      </c>
-      <c r="E290" s="7">
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <v>5913</v>
       </c>
@@ -6845,16 +5097,10 @@
         <v>111</v>
       </c>
       <c r="C291" s="7">
-        <v>714</v>
-      </c>
-      <c r="D291" s="7">
-        <v>95</v>
-      </c>
-      <c r="E291" s="7">
         <v>809</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
         <v>5914</v>
       </c>
@@ -6862,16 +5108,10 @@
         <v>112</v>
       </c>
       <c r="C292" s="7">
-        <v>312</v>
-      </c>
-      <c r="D292" s="7">
-        <v>48</v>
-      </c>
-      <c r="E292" s="7">
         <v>360</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
         <v>5919</v>
       </c>
@@ -6879,16 +5119,10 @@
         <v>121</v>
       </c>
       <c r="C293" s="7">
-        <v>538</v>
-      </c>
-      <c r="D293" s="7">
-        <v>73</v>
-      </c>
-      <c r="E293" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
         <v>5921</v>
       </c>
@@ -6896,16 +5130,10 @@
         <v>123</v>
       </c>
       <c r="C294" s="7">
-        <v>206</v>
-      </c>
-      <c r="D294" s="7">
-        <v>29</v>
-      </c>
-      <c r="E294" s="7">
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
         <v>5922</v>
       </c>
@@ -6913,16 +5141,10 @@
         <v>124</v>
       </c>
       <c r="C295" s="7">
-        <v>636</v>
-      </c>
-      <c r="D295" s="7">
-        <v>102</v>
-      </c>
-      <c r="E295" s="7">
         <v>738</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <v>5923</v>
       </c>
@@ -6930,16 +5152,10 @@
         <v>70</v>
       </c>
       <c r="C296" s="7">
-        <v>146</v>
-      </c>
-      <c r="D296" s="7">
-        <v>50</v>
-      </c>
-      <c r="E296" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
         <v>5924</v>
       </c>
@@ -6947,16 +5163,10 @@
         <v>130</v>
       </c>
       <c r="C297" s="7">
-        <v>292</v>
-      </c>
-      <c r="D297" s="7">
-        <v>40</v>
-      </c>
-      <c r="E297" s="7">
         <v>332</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
         <v>5925</v>
       </c>
@@ -6964,16 +5174,10 @@
         <v>131</v>
       </c>
       <c r="C298" s="7">
-        <v>181</v>
-      </c>
-      <c r="D298" s="7">
-        <v>15</v>
-      </c>
-      <c r="E298" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
         <v>5926</v>
       </c>
@@ -6981,16 +5185,10 @@
         <v>132</v>
       </c>
       <c r="C299" s="7">
-        <v>719</v>
-      </c>
-      <c r="D299" s="7">
-        <v>61</v>
-      </c>
-      <c r="E299" s="7">
         <v>780</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
         <v>5928</v>
       </c>
@@ -6998,16 +5196,10 @@
         <v>138</v>
       </c>
       <c r="C300" s="7">
-        <v>159</v>
-      </c>
-      <c r="D300" s="7">
-        <v>21</v>
-      </c>
-      <c r="E300" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
         <v>5929</v>
       </c>
@@ -7015,16 +5207,10 @@
         <v>141</v>
       </c>
       <c r="C301" s="7">
-        <v>504</v>
-      </c>
-      <c r="D301" s="7">
-        <v>95</v>
-      </c>
-      <c r="E301" s="7">
         <v>599</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="2">
         <v>5930</v>
       </c>
@@ -7032,16 +5218,10 @@
         <v>142</v>
       </c>
       <c r="C302" s="7">
-        <v>183</v>
-      </c>
-      <c r="D302" s="7">
-        <v>30</v>
-      </c>
-      <c r="E302" s="7">
         <v>213</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="2">
         <v>5931</v>
       </c>
@@ -7049,16 +5229,10 @@
         <v>144</v>
       </c>
       <c r="C303" s="7">
-        <v>389</v>
-      </c>
-      <c r="D303" s="7">
-        <v>91</v>
-      </c>
-      <c r="E303" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="304" spans="1:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:3" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="2">
         <v>5932</v>
       </c>
@@ -7066,16 +5240,10 @@
         <v>145</v>
       </c>
       <c r="C304" s="7">
-        <v>197</v>
-      </c>
-      <c r="D304" s="7">
-        <v>33</v>
-      </c>
-      <c r="E304" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="2">
         <v>5933</v>
       </c>
@@ -7083,16 +5251,10 @@
         <v>146</v>
       </c>
       <c r="C305" s="7">
-        <v>602</v>
-      </c>
-      <c r="D305" s="7">
-        <v>106</v>
-      </c>
-      <c r="E305" s="7">
         <v>708</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="2">
         <v>5934</v>
       </c>
@@ -7100,16 +5262,10 @@
         <v>148</v>
       </c>
       <c r="C306" s="7">
-        <v>226</v>
-      </c>
-      <c r="D306" s="7">
-        <v>6</v>
-      </c>
-      <c r="E306" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="2">
         <v>5935</v>
       </c>
@@ -7117,16 +5273,10 @@
         <v>151</v>
       </c>
       <c r="C307" s="7">
-        <v>88</v>
-      </c>
-      <c r="D307" s="7">
-        <v>12</v>
-      </c>
-      <c r="E307" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="2">
         <v>5937</v>
       </c>
@@ -7134,16 +5284,10 @@
         <v>152</v>
       </c>
       <c r="C308" s="7">
-        <v>118</v>
-      </c>
-      <c r="D308" s="7">
-        <v>14</v>
-      </c>
-      <c r="E308" s="7">
         <v>132</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="2">
         <v>5938</v>
       </c>
@@ -7151,16 +5295,10 @@
         <v>154</v>
       </c>
       <c r="C309" s="7">
-        <v>18849</v>
-      </c>
-      <c r="D309" s="7">
-        <v>11362</v>
-      </c>
-      <c r="E309" s="7">
         <v>30211</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="2">
         <v>5939</v>
       </c>
@@ -7168,18 +5306,12 @@
         <v>155</v>
       </c>
       <c r="C310" s="7">
-        <v>2912</v>
-      </c>
-      <c r="D310" s="7">
-        <v>514</v>
-      </c>
-      <c r="E310" s="7">
         <v>3426</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E310" xr:uid="{8091CE88-4CDD-0148-A453-FA1F554AB65D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E310">
+  <autoFilter ref="A1:C310" xr:uid="{8091CE88-4CDD-0148-A453-FA1F554AB65D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C310">
       <sortCondition ref="A1:A310"/>
     </sortState>
   </autoFilter>
